--- a/You_Tube_Top_10_videos_Scrap/youtube_top10_videos.xlsx
+++ b/You_Tube_Top_10_videos_Scrap/youtube_top10_videos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\Python_Projects\You_Tube_Top_10_videos_Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298A3EA-D03F-45AE-ACBD-870A0F1B0129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A066EF9A-6C32-4A5E-ADA8-B6101574E803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Channel</t>
   </si>
@@ -49,90 +49,60 @@
     <t>100 Kids Vs World's Strongest Man!</t>
   </si>
   <si>
-    <t>20251011</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=oBXSvS2QKxU</t>
   </si>
   <si>
     <t>Hi Me In 10 Years</t>
   </si>
   <si>
-    <t>20251004</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=F0OkwXKcPSE</t>
   </si>
   <si>
     <t>Would You Risk Dying For $500,000?</t>
   </si>
   <si>
-    <t>20250927</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=zo7i8VTpfNM</t>
   </si>
   <si>
     <t>Survive 30 Days Chained To Your Ex, Win $250,000</t>
   </si>
   <si>
-    <t>20250913</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=4l97aNza_Zc</t>
   </si>
   <si>
     <t>$1 vs $1,000,000,000 Nuclear Bunker!</t>
   </si>
   <si>
-    <t>20250830</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=_AbFXuGDRTs</t>
   </si>
   <si>
     <t>Survive 100 Days In Prison, Win $500,000</t>
   </si>
   <si>
-    <t>20250816</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=TDv56whosPQ</t>
   </si>
   <si>
     <t>2,000,000 People Get Clean Water For The First Time!</t>
   </si>
   <si>
-    <t>20250801</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=Z4hVGCWH1Kc</t>
   </si>
   <si>
     <t>Survive 100 Days Trapped In A Private Jet, Keep It</t>
   </si>
   <si>
-    <t>20250719</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=pzBi1nwDn8U</t>
   </si>
   <si>
     <t>World's Fastest Car Vs Cheetah!</t>
   </si>
   <si>
-    <t>20250705</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=FWAdfuPpLOc</t>
   </si>
   <si>
     <t>Lose 100 LBs, Win $250,000!</t>
   </si>
   <si>
-    <t>20250621</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=pe_ejTiIcSs</t>
   </si>
   <si>
@@ -142,88 +112,58 @@
     <t>We simulated if you can really reach anyone in 6 steps</t>
   </si>
   <si>
-    <t>20250930</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=CYlon2tvywA</t>
   </si>
   <si>
     <t>This liquid is too dangerous to transport</t>
   </si>
   <si>
-    <t>20250921</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=onr80iOoEXs</t>
   </si>
   <si>
     <t>The Most Dangerous Escalator in Rome</t>
   </si>
   <si>
-    <t>20250911</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=tZ8ehplVFp4</t>
   </si>
   <si>
     <t>Exposing Why Farmers Can't Legally Replant Their Own Seeds</t>
   </si>
   <si>
-    <t>20250831</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=CxVXvFOPIyQ</t>
   </si>
   <si>
     <t>This is the natural disaster to worry about</t>
   </si>
   <si>
-    <t>20250822</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=AFXLZ7FEJc4</t>
   </si>
   <si>
     <t>The Perfect Battery Material Is Dangerous</t>
   </si>
   <si>
-    <t>20250807</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=AGglJehON5g</t>
   </si>
   <si>
     <t>The Strange Math That Predicts (Almost) Anything</t>
   </si>
   <si>
-    <t>20250725</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=KZeIEiBrT_w</t>
   </si>
   <si>
     <t>This mechanism shrinks when pulled</t>
   </si>
   <si>
-    <t>20250630</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=-QTkPfq7w1A</t>
   </si>
   <si>
     <t>The Obviously True Theorem No One Can Prove</t>
   </si>
   <si>
-    <t>20250620</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=x32Zq-XvID4</t>
   </si>
   <si>
     <t>The Biggest Misconception in Football (ft. Tom Brady)</t>
-  </si>
-  <si>
-    <t>20250601</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=J3i3F2e4IYs</t>
@@ -283,11 +223,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,7 +534,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,11 +587,11 @@
       <c r="E2">
         <v>2315997</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2">
+        <v>45941</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -661,7 +602,7 @@
         <v>447000000</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>43400066</v>
@@ -669,11 +610,11 @@
       <c r="E3">
         <v>3143608</v>
       </c>
-      <c r="F3" t="s">
-        <v>12</v>
+      <c r="F3" s="2">
+        <v>45942</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -684,7 +625,7 @@
         <v>447000000</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>87016071</v>
@@ -692,11 +633,11 @@
       <c r="E4">
         <v>2000461</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
+      <c r="F4" s="2">
+        <v>45943</v>
       </c>
       <c r="G4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -707,7 +648,7 @@
         <v>447000000</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>148346110</v>
@@ -715,11 +656,11 @@
       <c r="E5">
         <v>3363712</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
+      <c r="F5" s="2">
+        <v>45944</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -730,7 +671,7 @@
         <v>447000000</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6">
         <v>117446445</v>
@@ -738,11 +679,11 @@
       <c r="E6">
         <v>2605496</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
+      <c r="F6" s="2">
+        <v>45945</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -753,7 +694,7 @@
         <v>447000000</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>119578079</v>
@@ -761,11 +702,11 @@
       <c r="E7">
         <v>2869500</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
+      <c r="F7" s="2">
+        <v>45946</v>
       </c>
       <c r="G7" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -776,7 +717,7 @@
         <v>447000000</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>77373092</v>
@@ -784,11 +725,11 @@
       <c r="E8">
         <v>2312145</v>
       </c>
-      <c r="F8" t="s">
-        <v>27</v>
+      <c r="F8" s="2">
+        <v>45947</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -799,7 +740,7 @@
         <v>447000000</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>133105662</v>
@@ -807,11 +748,11 @@
       <c r="E9">
         <v>3391278</v>
       </c>
-      <c r="F9" t="s">
-        <v>30</v>
+      <c r="F9" s="2">
+        <v>45948</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -822,7 +763,7 @@
         <v>447000000</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D10">
         <v>179807707</v>
@@ -830,11 +771,11 @@
       <c r="E10">
         <v>3308026</v>
       </c>
-      <c r="F10" t="s">
-        <v>33</v>
+      <c r="F10" s="2">
+        <v>45949</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -845,7 +786,7 @@
         <v>447000000</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D11">
         <v>205255758</v>
@@ -853,22 +794,22 @@
       <c r="E11">
         <v>6401513</v>
       </c>
-      <c r="F11" t="s">
-        <v>36</v>
+      <c r="F11" s="2">
+        <v>45950</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>19300000</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D12">
         <v>7670550</v>
@@ -876,22 +817,22 @@
       <c r="E12">
         <v>232430</v>
       </c>
-      <c r="F12" t="s">
-        <v>40</v>
+      <c r="F12" s="2">
+        <v>45951</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>19300000</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>6906879</v>
@@ -899,22 +840,22 @@
       <c r="E13">
         <v>171174</v>
       </c>
-      <c r="F13" t="s">
-        <v>43</v>
+      <c r="F13" s="2">
+        <v>45952</v>
       </c>
       <c r="G13" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>19300000</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D14">
         <v>9643898</v>
@@ -922,22 +863,22 @@
       <c r="E14">
         <v>258559</v>
       </c>
-      <c r="F14" t="s">
-        <v>46</v>
+      <c r="F14" s="2">
+        <v>45953</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>19300000</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D15">
         <v>15286688</v>
@@ -945,22 +886,22 @@
       <c r="E15">
         <v>450203</v>
       </c>
-      <c r="F15" t="s">
-        <v>49</v>
+      <c r="F15" s="2">
+        <v>45954</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>19300000</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D16">
         <v>7057820</v>
@@ -968,22 +909,22 @@
       <c r="E16">
         <v>177725</v>
       </c>
-      <c r="F16" t="s">
-        <v>52</v>
+      <c r="F16" s="2">
+        <v>45955</v>
       </c>
       <c r="G16" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>19300000</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D17">
         <v>9974015</v>
@@ -991,22 +932,22 @@
       <c r="E17">
         <v>200679</v>
       </c>
-      <c r="F17" t="s">
-        <v>55</v>
+      <c r="F17" s="2">
+        <v>45956</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>19300000</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>9286328</v>
@@ -1014,22 +955,22 @@
       <c r="E18">
         <v>231838</v>
       </c>
-      <c r="F18" t="s">
-        <v>58</v>
+      <c r="F18" s="2">
+        <v>45957</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>19300000</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>9814577</v>
@@ -1037,22 +978,22 @@
       <c r="E19">
         <v>232431</v>
       </c>
-      <c r="F19" t="s">
-        <v>61</v>
+      <c r="F19" s="2">
+        <v>45958</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B20">
         <v>19300000</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D20">
         <v>7100217</v>
@@ -1060,22 +1001,22 @@
       <c r="E20">
         <v>158002</v>
       </c>
-      <c r="F20" t="s">
-        <v>64</v>
+      <c r="F20" s="2">
+        <v>45959</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>19300000</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D21">
         <v>7571616</v>
@@ -1083,11 +1024,11 @@
       <c r="E21">
         <v>172105</v>
       </c>
-      <c r="F21" t="s">
-        <v>67</v>
+      <c r="F21" s="2">
+        <v>45960</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
